--- a/vqamed2019/output_train.xlsx
+++ b/vqamed2019/output_train.xlsx
@@ -1,43 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="sheet_train" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,94 +38,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -211,6 +128,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -245,6 +163,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -279,20 +198,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -414,88 +329,139 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>model_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>bert_model</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>image_embedding</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>epoch</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>lr</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>loss_train</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>overall_accuracy_train</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>loss_val</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>loss_test</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>overall_accuracy_test</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>all_test_bleu</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
+      <c r="B1" t="str">
+        <v>model_name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>bert_model</v>
+      </c>
+      <c r="D1" t="str">
+        <v>image_embedding</v>
+      </c>
+      <c r="E1" t="str">
+        <v>epoch</v>
+      </c>
+      <c r="F1" t="str">
+        <v>lr</v>
+      </c>
+      <c r="G1" t="str">
+        <v>loss_train</v>
+      </c>
+      <c r="H1" t="str">
+        <v>overall_accuracy_train</v>
+      </c>
+      <c r="I1" t="str">
+        <v>loss_val</v>
+      </c>
+      <c r="J1" t="str">
+        <v>loss_test</v>
+      </c>
+      <c r="K1" t="str">
+        <v>overall_accuracy_test</v>
+      </c>
+      <c r="L1" t="str">
+        <v>all_test_bleu</v>
+      </c>
+      <c r="M1" t="str">
+        <v>category</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>0</v>
+      </c>
+      <c r="B2" t="str">
+        <v>premedmodality</v>
+      </c>
+      <c r="C2" t="str">
+        <v>bert-base-uncased</v>
+      </c>
+      <c r="D2" t="str">
+        <v>vision</v>
+      </c>
+      <c r="E2" t="str">
+        <v>200</v>
+      </c>
+      <c r="F2" t="str">
+        <v>0.0001</v>
+      </c>
+      <c r="G2" t="str">
+        <v>[1.7927315, 1.1401163, 0.9831116, 0.9048015, 0.8015858, 0.63716173, 0.56608033, 0.52996576, 0.4958303, 0.45723274, 0.33574894, 0.25024867, 0.20840861, 0.19914497, 0.16557972, 0.094641626, 0.06599792, 0.04236535, 0.032830447, 0.022580642, 0.018783372, 0.012435628, 0.011009424, 0.010848238, 0.008208804, 0.0067075794, 0.006556281, 0.008076719, 0.007933706, 0.005366219, 0.0047973236, 0.004887061, 0.004445296, 0.004077717, 0.0047912663, 0.0039249696, 0.0035518045, 0.0036989842, 0.0041138506, 0.0035577915, 0.0036700678, 0.0038367244, 0.0034745925, 0.0033109433, 0.0034932029, 0.0032869747, 0.0033763128, 0.0035607421, 0.0032691283, 0.0037095554, 0.0046538366, 0.0036134892, 0.0033357942, 0.004046593, 0.003447659, 0.0032168573, 0.003416654, 0.0033022063, 0.0034619642, 0.0035739946, 0.0036942917, 0.0034191853, 0.003299025, 0.0037745447, 0.0034011435, 0.003260901, 0.003393603, 0.003433634, 0.0031591689, 0.0033259178, 0.0034190589, 0.0033068163, 0.003195457, 0.0033915138, 0.0032522029, 0.003866598, 0.0034842088, 0.0035372002, 0.003378505, 0.0032999655, 0.0032340174, 0.0031656967, 0.0035416356, 0.0032199114, 0.003316018, 0.0033561585, 0.0033746636, 0.003331207, 0.003320281, 0.0034711855, 0.0034405566, 0.0033159298, 0.0032569692, 0.0031794982, 0.0032459307, 0.0033134883, 0.0033094925, 0.0032602286, 0.0032981557, 0.0035031291, 0.0032856772, 0.0037392115, 0.0044711935, 0.0032045373, 0.0033525582, 0.00364473, 0.0033155507, 0.004168178, 0.0037300074, 0.0042196456, 0.0032769537, 0.0034643107, 0.0031152188, 0.0040518716, 0.0035396505, 0.0030892259, 0.0037665796, 0.0032397842, 0.003279562, 0.0030746525, 0.0033098578, 0.003340475, 0.003472203, 0.003241057, 0.0033876789, 0.0034843108, 0.003510918, 0.0034953963, 0.0032346677, 0.0035007338, 0.0031889025, 0.0033441824, 0.0034103359, 0.0031492554, 0.0031697857, 0.0033172036, 0.003293137, 0.004459423, 0.0032028598, 0.003258755, 0.0034473839, 0.0032054333, 0.00334169, 0.0038641053, 0.0032670659, 0.0035199278, 0.0033162138, 0.003124582, 0.00336479, 0.0033406494, 0.0037413633, 0.003253047, 0.0033796714, 0.0032984498, 0.003382749, 0.0034197678, 0.0032501377, 0.003564623, 0.0035205907, 0.0033236016, 0.0033105172, 0.0031878662, 0.0033652552, 0.003455393, 0.003655493, 0.0032742757, 0.00346461, 0.003471486, 0.0037312275, 0.0035123557, 0.0033003727, 0.003355746, 0.0034953535, 0.0032676065, 0.0032193174, 0.0031747662, 0.0031236524, 0.0039862557, 0.0032405385, 0.0034365503, 0.0034220486, 0.0034533984, 0.0032184457, 0.0033884912, 0.0035890979, 0.003151338, 0.0035286958, 0.0035307514, 0.004196656, 0.0035677208, 0.0033640459, 0.003313513, 0.003247776, 0.0031524533, 0.003097295, 0.0031834024, 0.0034334606, 0.0033530295, 0.0032148575, 0.0033384445]</v>
+      </c>
+      <c r="H2" t="str">
+        <v>[42.25, 56.96875, 61.375, 63.5, 66.65625, 74.59375, 77.46875, 79.53125, 81.34375, 82.65625, 87.6875, 91.5, 93.46875, 93.46875, 94.65625, 97.4375, 98.3125, 99.125, 99.4375, 99.6875, 99.75, 99.9375, 99.84375, 99.875, 99.90625, 99.9375, 99.96875, 99.875, 99.90625, 99.9375, 99.96875, 99.96875, 99.96875, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 99.96875, 99.90625, 99.96875, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 99.96875, 100.0, 100.0, 99.96875, 100.0, 100.0, 99.96875, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 99.96875, 100.0, 100.0, 99.96875, 100.0, 100.0, 99.96875, 100.0, 99.96875, 99.96875, 99.96875, 100.0, 100.0, 100.0, 99.9375, 99.96875, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 99.96875, 100.0, 100.0, 100.0, 99.96875, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 99.96875, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0]</v>
+      </c>
+      <c r="I2" t="str">
+        <v>[1.1801373, 0.68966466, 0.6294638, 0.7122586, 0.8126519, 0.7936994, 0.8510661, 0.8532214, 0.85886896, 0.8682887, 0.8802968, 0.86658525, 0.8517156, 0.86703485, 0.87412655, 0.8830077, 0.8708635, 0.8684646, 0.8996321, 0.8646774, 0.85625196, 0.86935425, 0.8580242, 0.8550765, 0.87840056, 0.8466458, 0.8673026, 0.86434394, 0.84818745, 0.86434287, 0.85993475, 0.8579132, 0.88835007, 0.86085635, 0.8652011, 0.88069147, 0.8684313, 0.88047665, 0.8942401, 0.8718894]</v>
+      </c>
+      <c r="J2" t="str">
+        <v>[1.2487729, 1.1120486, 1.0546038, 0.9789447, 0.9557519, 0.7369747, 0.8272747, 0.76711786, 0.77220833, 0.7882168, 0.6948637, 0.83239585, 0.8512592, 0.77050596, 0.8959183, 0.79912007, 0.759048, 0.84939617, 0.8634549, 0.9326017, 0.853176, 0.89073205, 0.8953121, 0.82822835, 0.85534155, 0.8799375, 0.85471267, 0.98149765, 0.8888872, 0.89692277, 0.9271404, 0.9487725, 0.9263987, 0.9272574, 1.0066425, 0.92503804, 0.92832124, 0.9892726, 0.9622263, 0.97900844, 0.94654155, 0.9740072, 0.90738463, 0.9559141, 0.9719924, 0.94130707, 0.95059735, 0.9622984, 0.94060445, 0.922362, 0.96683484, 0.96265006, 0.93628013, 0.93950796, 0.93719184, 0.9379471, 0.96095157, 0.9759965, 0.96923655, 0.9350704, 0.9359962, 0.9483226, 0.9647564, 0.97032195, 0.9437165, 0.9343327, 0.95240617, 0.96002495, 0.96549356, 0.9609919, 0.95382315, 0.9826454, 0.94604045, 0.97600204, 0.96569484, 0.95165247, 0.9625971, 0.9604045, 0.96327615, 0.9521364, 0.9505341, 0.94082266, 0.94544446, 0.93232584, 0.91731083, 0.9562566, 0.9451402, 0.9528382, 0.95045257, 0.9558721, 0.95366883, 0.9900087, 0.98936075, 0.9586638, 0.9614331, 0.9322077, 0.9865402, 0.98591703, 0.97306436, 0.94339305, 0.97460103, 0.9797715, 1.0057664, 1.0072902, 0.94533, 0.97509456, 0.9383676, 0.9629035, 0.94914186, 0.9330082, 0.9939641, 0.9428191, 0.8942802, 0.9524978, 0.9474996, 0.96010983, 0.9652159, 0.9435618, 0.96483076, 0.9579308, 0.9392428, 0.9327249, 0.9793362, 0.9413573, 0.9373033, 0.93022746, 0.9559676, 0.92369545, 0.9725602, 0.9597888, 1.0038878, 0.9306307, 0.9264815, 0.92256975, 0.9553404, 0.9788294, 0.93564665, 0.9348434, 0.95222056, 0.9617171, 0.9195944, 0.9385406, 0.94753885, 0.9694162, 0.96636766, 0.93738735, 0.96732545, 0.96677583, 0.94935244, 0.9486365, 0.9010226, 0.9418692, 0.97180325, 0.9929496, 0.9914316, 0.95945793, 0.9588151, 0.9693996, 0.9664686, 0.9790423, 0.95734316, 0.9873389, 0.9362279, 0.9710137, 0.97781706, 0.9980688, 0.96375537, 0.9652236, 0.99204564, 0.94620264, 0.95451933, 0.96477634, 0.9053619, 0.973688, 0.9341425, 0.9804733, 0.9228657, 1.0207965, 1.0011725, 0.9450742, 0.97381204, 0.93601304, 0.9360348, 0.9569087, 0.9604949, 0.9883, 0.9449281, 0.94523215, 0.9198027, 0.9168006, 0.9229814, 0.9240839, 0.92959034, 0.93927395, 0.89794147, 0.9639961, 0.97288406, 0.9560455, 0.9592626, 0.9523972]</v>
+      </c>
+      <c r="K2" t="str">
+        <v>[50.4, 57.599999999999994, 62.4, 60.0, 61.6, 72.0, 71.2, 72.0, 68.0, 74.4, 76.8, 76.0, 76.8, 77.60000000000001, 78.4, 77.60000000000001, 79.2, 78.4, 78.4, 78.4, 80.0, 80.0, 78.4, 80.0, 84.0, 81.6, 83.2, 80.80000000000001, 82.39999999999999, 80.80000000000001, 80.80000000000001, 80.80000000000001, 80.0, 83.2, 79.2, 82.39999999999999, 80.0, 79.2, 80.80000000000001, 79.2, 80.0, 80.0, 81.6, 80.0, 81.6, 83.2, 81.6, 80.80000000000001, 80.80000000000001, 82.39999999999999, 80.80000000000001, 80.80000000000001, 81.6, 82.39999999999999, 81.6, 81.6, 80.0, 80.0, 81.6, 82.39999999999999, 81.6, 81.6, 80.80000000000001, 81.6, 80.0, 80.80000000000001, 81.6, 80.0, 81.6, 82.39999999999999, 80.0, 80.0, 80.80000000000001, 80.0, 79.2, 81.6, 80.80000000000001, 79.2, 80.0, 80.0, 80.80000000000001, 79.2, 82.39999999999999, 80.0, 81.6, 83.2, 81.6, 81.6, 81.6, 83.2, 81.6, 80.80000000000001, 79.2, 80.0, 80.80000000000001, 80.80000000000001, 82.39999999999999, 80.0, 78.4, 81.6, 80.0, 80.0, 80.80000000000001, 80.0, 80.80000000000001, 80.80000000000001, 80.0, 78.4, 80.0, 81.6, 79.2, 83.2, 82.39999999999999, 80.80000000000001, 82.39999999999999, 80.0, 80.80000000000001, 80.0, 81.6, 81.6, 83.2, 81.6, 79.2, 80.80000000000001, 82.39999999999999, 80.80000000000001, 84.0, 81.6, 80.80000000000001, 80.80000000000001, 80.0, 82.39999999999999, 82.39999999999999, 80.80000000000001, 81.6, 80.80000000000001, 81.6, 81.6, 81.6, 80.80000000000001, 80.80000000000001, 82.39999999999999, 81.6, 79.2, 83.2, 81.6, 81.6, 80.80000000000001, 80.80000000000001, 82.39999999999999, 82.39999999999999, 82.39999999999999, 83.2, 79.2, 80.0, 80.0, 80.0, 80.80000000000001, 81.6, 80.80000000000001, 80.80000000000001, 80.80000000000001, 81.6, 80.80000000000001, 80.80000000000001, 80.0, 80.80000000000001, 83.2, 79.2, 81.6, 82.39999999999999, 80.80000000000001, 81.6, 78.4, 81.6, 79.2, 82.39999999999999, 78.4, 81.6, 81.6, 82.39999999999999, 80.80000000000001, 80.80000000000001, 82.39999999999999, 81.6, 80.80000000000001, 80.0, 81.6, 80.80000000000001, 81.6, 81.6, 81.6, 81.6, 80.0, 81.6, 80.80000000000001, 81.6, 81.6, 82.39999999999999, 82.39999999999999]</v>
+      </c>
+      <c r="L2" t="str">
+        <v>[0.5522494753109006, 0.6013907943657143, 0.6786664725628473, 0.6330006074435448, 0.6779162942550133, 0.7788693089871226, 0.7684964819606791, 0.7725193264287483, 0.7331483632503607, 0.7893515420300875, 0.82088386228118, 0.8088617587519672, 0.8074186789216264, 0.8079254320516518, 0.8148916843786413, 0.8180263293429465, 0.8270298688099937, 0.8258478296660068, 0.8207370795044766, 0.8245585798275369, 0.8347370795044766, 0.8367370795044766, 0.8192655617397909, 0.8427370795044766, 0.8752655617397909, 0.8492655617397908, 0.8652655617397909, 0.8432655617397908, 0.8572655617397908, 0.8492655617397908, 0.8432655617397908, 0.8525988950731241, 0.8427370795044766, 0.8692655617397909, 0.8299811629993401, 0.8647370795044765, 0.8425988950731241, 0.8365988950731241, 0.8492655617397908, 0.8312655617397909, 0.8447370795044766, 0.8425988950731241, 0.8512655617397908, 0.8425988950731241, 0.8572655617397908, 0.8672655617397909, 0.8572655617397908, 0.8432655617397908, 0.8492655617397908, 0.8685988950731242, 0.8507370795044766, 0.8507370795044766, 0.8492655617397908, 0.8592655617397909, 0.8512655617397908, 0.8527370795044766, 0.8427370795044766, 0.8412655617397908, 0.8552655617397908, 0.8632655617397909, 0.8512655617397908, 0.8552655617397908, 0.8472655617397908, 0.8587370795044765, 0.8427370795044766, 0.8412655617397908, 0.8572655617397908, 0.8427370795044766, 0.8572655617397908, 0.8652655617397909, 0.8412655617397908, 0.8445988950731241, 0.8472655617397908, 0.8407370795044766, 0.8352655617397908, 0.8587370795044765, 0.8487370795044766, 0.8332655617397908, 0.8405988950731241, 0.8352655617397908, 0.8485988950731241, 0.8352704128378099, 0.8572655617397908, 0.8465988950731241, 0.8572655617397908, 0.8652655617397909, 0.8572655617397908, 0.8512655617397908, 0.8527370795044766, 0.8672704128378099, 0.8587370795044765, 0.8432655617397908, 0.8272655617397909, 0.8485988950731241, 0.8467370795044766, 0.8475764658845454, 0.8632655617397909, 0.8412655617397908, 0.8252655617397909, 0.8527370795044766, 0.8352655617397908, 0.8372655617397908, 0.8432655617397908, 0.8372655617397908, 0.8492655617397908, 0.8507370795044766, 0.8465988950731241, 0.8287370795044766, 0.8352655617397908, 0.8527370795044766, 0.8319370795044766, 0.8652655617397909, 0.8592655617397909, 0.8492655617397908, 0.8632655617397909, 0.8427370795044766, 0.8472655617397908, 0.8412655617397908, 0.8527370795044766, 0.8527370795044766, 0.8707370795044765, 0.8527370795044766, 0.8332655617397908, 0.8545988950731241, 0.8607370795044765, 0.8432655617397908, 0.8732655617397909, 0.8527370795044766, 0.8472655617397908, 0.8432655617397908, 0.8432655617397908, 0.8647370795044765, 0.8632655617397909, 0.8492655617397908, 0.8572655617397908, 0.8432655617397908, 0.8527370795044766, 0.8552655617397908, 0.8527370795044766, 0.8487370795044766, 0.8492655617397908, 0.8587370795044765, 0.8492655617397908, 0.8405988950731241, 0.8712704128378099, 0.8547370795044766, 0.8567370795044765, 0.8452655617397908, 0.8432655617397908, 0.8652655617397909, 0.8647370795044765, 0.8632655617397909, 0.8652655617397909, 0.8312655617397909, 0.8407370795044766, 0.8485988950731241, 0.8412655617397908, 0.8492655617397908, 0.8527370795044766, 0.8472655617397908, 0.8472655617397908, 0.8477988950731242, 0.8587370795044765, 0.8464655617397908, 0.8507370795044766, 0.8392655617397908, 0.8492655617397908, 0.8712704128378099, 0.8365988950731241, 0.8552655617397908, 0.8612655617397909, 0.8507370795044766, 0.8587370795044765, 0.8212655617397909, 0.8552655617397908, 0.8307370795044766, 0.8607370795044765, 0.8239370795044766, 0.8544704128378099, 0.8532655617397908, 0.8572655617397908, 0.8492655617397908, 0.8487370795044766, 0.8572655617397908, 0.8512655617397908, 0.8507370795044766, 0.8412655617397908, 0.8572655617397908, 0.8472655617397908, 0.8572655617397908, 0.8492655617397908, 0.8567370795044765, 0.8552655617397908, 0.8425988950731241, 0.8512655617397908, 0.8492655617397908, 0.8547370795044766, 0.8625988950731242, 0.8592655617397909, 0.8592655617397909]</v>
+      </c>
+      <c r="M2" t="str">
+        <v>Modality</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:M2"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/vqamed2019/output_train.xlsx
+++ b/vqamed2019/output_train.xlsx
@@ -1,36 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -38,18 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -128,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -163,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -198,16 +279,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -329,139 +414,1186 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="str">
-        <v>model_name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>bert_model</v>
-      </c>
-      <c r="D1" t="str">
-        <v>image_embedding</v>
-      </c>
-      <c r="E1" t="str">
-        <v>epoch</v>
-      </c>
-      <c r="F1" t="str">
-        <v>lr</v>
-      </c>
-      <c r="G1" t="str">
-        <v>loss_train</v>
-      </c>
-      <c r="H1" t="str">
-        <v>overall_accuracy_train</v>
-      </c>
-      <c r="I1" t="str">
-        <v>loss_val</v>
-      </c>
-      <c r="J1" t="str">
-        <v>loss_test</v>
-      </c>
-      <c r="K1" t="str">
-        <v>overall_accuracy_test</v>
-      </c>
-      <c r="L1" t="str">
-        <v>all_test_bleu</v>
-      </c>
-      <c r="M1" t="str">
-        <v>category</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>model_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>bert_model</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>image_embedding</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>epoch</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>lr</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>loss_train</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>overall_accuracy_train</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>loss_val</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>loss_test</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>overall_accuracy_test</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>all_test_bleu</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="str">
-        <v>premedmodality</v>
-      </c>
-      <c r="C2" t="str">
-        <v>bert-base-uncased</v>
-      </c>
-      <c r="D2" t="str">
-        <v>vision</v>
-      </c>
-      <c r="E2" t="str">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>premedmodality</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>200</v>
       </c>
-      <c r="F2" t="str">
-        <v>0.0001</v>
-      </c>
-      <c r="G2" t="str">
-        <v>[1.7927315, 1.1401163, 0.9831116, 0.9048015, 0.8015858, 0.63716173, 0.56608033, 0.52996576, 0.4958303, 0.45723274, 0.33574894, 0.25024867, 0.20840861, 0.19914497, 0.16557972, 0.094641626, 0.06599792, 0.04236535, 0.032830447, 0.022580642, 0.018783372, 0.012435628, 0.011009424, 0.010848238, 0.008208804, 0.0067075794, 0.006556281, 0.008076719, 0.007933706, 0.005366219, 0.0047973236, 0.004887061, 0.004445296, 0.004077717, 0.0047912663, 0.0039249696, 0.0035518045, 0.0036989842, 0.0041138506, 0.0035577915, 0.0036700678, 0.0038367244, 0.0034745925, 0.0033109433, 0.0034932029, 0.0032869747, 0.0033763128, 0.0035607421, 0.0032691283, 0.0037095554, 0.0046538366, 0.0036134892, 0.0033357942, 0.004046593, 0.003447659, 0.0032168573, 0.003416654, 0.0033022063, 0.0034619642, 0.0035739946, 0.0036942917, 0.0034191853, 0.003299025, 0.0037745447, 0.0034011435, 0.003260901, 0.003393603, 0.003433634, 0.0031591689, 0.0033259178, 0.0034190589, 0.0033068163, 0.003195457, 0.0033915138, 0.0032522029, 0.003866598, 0.0034842088, 0.0035372002, 0.003378505, 0.0032999655, 0.0032340174, 0.0031656967, 0.0035416356, 0.0032199114, 0.003316018, 0.0033561585, 0.0033746636, 0.003331207, 0.003320281, 0.0034711855, 0.0034405566, 0.0033159298, 0.0032569692, 0.0031794982, 0.0032459307, 0.0033134883, 0.0033094925, 0.0032602286, 0.0032981557, 0.0035031291, 0.0032856772, 0.0037392115, 0.0044711935, 0.0032045373, 0.0033525582, 0.00364473, 0.0033155507, 0.004168178, 0.0037300074, 0.0042196456, 0.0032769537, 0.0034643107, 0.0031152188, 0.0040518716, 0.0035396505, 0.0030892259, 0.0037665796, 0.0032397842, 0.003279562, 0.0030746525, 0.0033098578, 0.003340475, 0.003472203, 0.003241057, 0.0033876789, 0.0034843108, 0.003510918, 0.0034953963, 0.0032346677, 0.0035007338, 0.0031889025, 0.0033441824, 0.0034103359, 0.0031492554, 0.0031697857, 0.0033172036, 0.003293137, 0.004459423, 0.0032028598, 0.003258755, 0.0034473839, 0.0032054333, 0.00334169, 0.0038641053, 0.0032670659, 0.0035199278, 0.0033162138, 0.003124582, 0.00336479, 0.0033406494, 0.0037413633, 0.003253047, 0.0033796714, 0.0032984498, 0.003382749, 0.0034197678, 0.0032501377, 0.003564623, 0.0035205907, 0.0033236016, 0.0033105172, 0.0031878662, 0.0033652552, 0.003455393, 0.003655493, 0.0032742757, 0.00346461, 0.003471486, 0.0037312275, 0.0035123557, 0.0033003727, 0.003355746, 0.0034953535, 0.0032676065, 0.0032193174, 0.0031747662, 0.0031236524, 0.0039862557, 0.0032405385, 0.0034365503, 0.0034220486, 0.0034533984, 0.0032184457, 0.0033884912, 0.0035890979, 0.003151338, 0.0035286958, 0.0035307514, 0.004196656, 0.0035677208, 0.0033640459, 0.003313513, 0.003247776, 0.0031524533, 0.003097295, 0.0031834024, 0.0034334606, 0.0033530295, 0.0032148575, 0.0033384445]</v>
-      </c>
-      <c r="H2" t="str">
-        <v>[42.25, 56.96875, 61.375, 63.5, 66.65625, 74.59375, 77.46875, 79.53125, 81.34375, 82.65625, 87.6875, 91.5, 93.46875, 93.46875, 94.65625, 97.4375, 98.3125, 99.125, 99.4375, 99.6875, 99.75, 99.9375, 99.84375, 99.875, 99.90625, 99.9375, 99.96875, 99.875, 99.90625, 99.9375, 99.96875, 99.96875, 99.96875, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 99.96875, 99.90625, 99.96875, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 99.96875, 100.0, 100.0, 99.96875, 100.0, 100.0, 99.96875, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 99.96875, 100.0, 100.0, 99.96875, 100.0, 100.0, 99.96875, 100.0, 99.96875, 99.96875, 99.96875, 100.0, 100.0, 100.0, 99.9375, 99.96875, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 99.96875, 100.0, 100.0, 100.0, 99.96875, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 99.96875, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0]</v>
-      </c>
-      <c r="I2" t="str">
-        <v>[1.1801373, 0.68966466, 0.6294638, 0.7122586, 0.8126519, 0.7936994, 0.8510661, 0.8532214, 0.85886896, 0.8682887, 0.8802968, 0.86658525, 0.8517156, 0.86703485, 0.87412655, 0.8830077, 0.8708635, 0.8684646, 0.8996321, 0.8646774, 0.85625196, 0.86935425, 0.8580242, 0.8550765, 0.87840056, 0.8466458, 0.8673026, 0.86434394, 0.84818745, 0.86434287, 0.85993475, 0.8579132, 0.88835007, 0.86085635, 0.8652011, 0.88069147, 0.8684313, 0.88047665, 0.8942401, 0.8718894]</v>
-      </c>
-      <c r="J2" t="str">
-        <v>[1.2487729, 1.1120486, 1.0546038, 0.9789447, 0.9557519, 0.7369747, 0.8272747, 0.76711786, 0.77220833, 0.7882168, 0.6948637, 0.83239585, 0.8512592, 0.77050596, 0.8959183, 0.79912007, 0.759048, 0.84939617, 0.8634549, 0.9326017, 0.853176, 0.89073205, 0.8953121, 0.82822835, 0.85534155, 0.8799375, 0.85471267, 0.98149765, 0.8888872, 0.89692277, 0.9271404, 0.9487725, 0.9263987, 0.9272574, 1.0066425, 0.92503804, 0.92832124, 0.9892726, 0.9622263, 0.97900844, 0.94654155, 0.9740072, 0.90738463, 0.9559141, 0.9719924, 0.94130707, 0.95059735, 0.9622984, 0.94060445, 0.922362, 0.96683484, 0.96265006, 0.93628013, 0.93950796, 0.93719184, 0.9379471, 0.96095157, 0.9759965, 0.96923655, 0.9350704, 0.9359962, 0.9483226, 0.9647564, 0.97032195, 0.9437165, 0.9343327, 0.95240617, 0.96002495, 0.96549356, 0.9609919, 0.95382315, 0.9826454, 0.94604045, 0.97600204, 0.96569484, 0.95165247, 0.9625971, 0.9604045, 0.96327615, 0.9521364, 0.9505341, 0.94082266, 0.94544446, 0.93232584, 0.91731083, 0.9562566, 0.9451402, 0.9528382, 0.95045257, 0.9558721, 0.95366883, 0.9900087, 0.98936075, 0.9586638, 0.9614331, 0.9322077, 0.9865402, 0.98591703, 0.97306436, 0.94339305, 0.97460103, 0.9797715, 1.0057664, 1.0072902, 0.94533, 0.97509456, 0.9383676, 0.9629035, 0.94914186, 0.9330082, 0.9939641, 0.9428191, 0.8942802, 0.9524978, 0.9474996, 0.96010983, 0.9652159, 0.9435618, 0.96483076, 0.9579308, 0.9392428, 0.9327249, 0.9793362, 0.9413573, 0.9373033, 0.93022746, 0.9559676, 0.92369545, 0.9725602, 0.9597888, 1.0038878, 0.9306307, 0.9264815, 0.92256975, 0.9553404, 0.9788294, 0.93564665, 0.9348434, 0.95222056, 0.9617171, 0.9195944, 0.9385406, 0.94753885, 0.9694162, 0.96636766, 0.93738735, 0.96732545, 0.96677583, 0.94935244, 0.9486365, 0.9010226, 0.9418692, 0.97180325, 0.9929496, 0.9914316, 0.95945793, 0.9588151, 0.9693996, 0.9664686, 0.9790423, 0.95734316, 0.9873389, 0.9362279, 0.9710137, 0.97781706, 0.9980688, 0.96375537, 0.9652236, 0.99204564, 0.94620264, 0.95451933, 0.96477634, 0.9053619, 0.973688, 0.9341425, 0.9804733, 0.9228657, 1.0207965, 1.0011725, 0.9450742, 0.97381204, 0.93601304, 0.9360348, 0.9569087, 0.9604949, 0.9883, 0.9449281, 0.94523215, 0.9198027, 0.9168006, 0.9229814, 0.9240839, 0.92959034, 0.93927395, 0.89794147, 0.9639961, 0.97288406, 0.9560455, 0.9592626, 0.9523972]</v>
-      </c>
-      <c r="K2" t="str">
-        <v>[50.4, 57.599999999999994, 62.4, 60.0, 61.6, 72.0, 71.2, 72.0, 68.0, 74.4, 76.8, 76.0, 76.8, 77.60000000000001, 78.4, 77.60000000000001, 79.2, 78.4, 78.4, 78.4, 80.0, 80.0, 78.4, 80.0, 84.0, 81.6, 83.2, 80.80000000000001, 82.39999999999999, 80.80000000000001, 80.80000000000001, 80.80000000000001, 80.0, 83.2, 79.2, 82.39999999999999, 80.0, 79.2, 80.80000000000001, 79.2, 80.0, 80.0, 81.6, 80.0, 81.6, 83.2, 81.6, 80.80000000000001, 80.80000000000001, 82.39999999999999, 80.80000000000001, 80.80000000000001, 81.6, 82.39999999999999, 81.6, 81.6, 80.0, 80.0, 81.6, 82.39999999999999, 81.6, 81.6, 80.80000000000001, 81.6, 80.0, 80.80000000000001, 81.6, 80.0, 81.6, 82.39999999999999, 80.0, 80.0, 80.80000000000001, 80.0, 79.2, 81.6, 80.80000000000001, 79.2, 80.0, 80.0, 80.80000000000001, 79.2, 82.39999999999999, 80.0, 81.6, 83.2, 81.6, 81.6, 81.6, 83.2, 81.6, 80.80000000000001, 79.2, 80.0, 80.80000000000001, 80.80000000000001, 82.39999999999999, 80.0, 78.4, 81.6, 80.0, 80.0, 80.80000000000001, 80.0, 80.80000000000001, 80.80000000000001, 80.0, 78.4, 80.0, 81.6, 79.2, 83.2, 82.39999999999999, 80.80000000000001, 82.39999999999999, 80.0, 80.80000000000001, 80.0, 81.6, 81.6, 83.2, 81.6, 79.2, 80.80000000000001, 82.39999999999999, 80.80000000000001, 84.0, 81.6, 80.80000000000001, 80.80000000000001, 80.0, 82.39999999999999, 82.39999999999999, 80.80000000000001, 81.6, 80.80000000000001, 81.6, 81.6, 81.6, 80.80000000000001, 80.80000000000001, 82.39999999999999, 81.6, 79.2, 83.2, 81.6, 81.6, 80.80000000000001, 80.80000000000001, 82.39999999999999, 82.39999999999999, 82.39999999999999, 83.2, 79.2, 80.0, 80.0, 80.0, 80.80000000000001, 81.6, 80.80000000000001, 80.80000000000001, 80.80000000000001, 81.6, 80.80000000000001, 80.80000000000001, 80.0, 80.80000000000001, 83.2, 79.2, 81.6, 82.39999999999999, 80.80000000000001, 81.6, 78.4, 81.6, 79.2, 82.39999999999999, 78.4, 81.6, 81.6, 82.39999999999999, 80.80000000000001, 80.80000000000001, 82.39999999999999, 81.6, 80.80000000000001, 80.0, 81.6, 80.80000000000001, 81.6, 81.6, 81.6, 81.6, 80.0, 81.6, 80.80000000000001, 81.6, 81.6, 82.39999999999999, 82.39999999999999]</v>
-      </c>
-      <c r="L2" t="str">
-        <v>[0.5522494753109006, 0.6013907943657143, 0.6786664725628473, 0.6330006074435448, 0.6779162942550133, 0.7788693089871226, 0.7684964819606791, 0.7725193264287483, 0.7331483632503607, 0.7893515420300875, 0.82088386228118, 0.8088617587519672, 0.8074186789216264, 0.8079254320516518, 0.8148916843786413, 0.8180263293429465, 0.8270298688099937, 0.8258478296660068, 0.8207370795044766, 0.8245585798275369, 0.8347370795044766, 0.8367370795044766, 0.8192655617397909, 0.8427370795044766, 0.8752655617397909, 0.8492655617397908, 0.8652655617397909, 0.8432655617397908, 0.8572655617397908, 0.8492655617397908, 0.8432655617397908, 0.8525988950731241, 0.8427370795044766, 0.8692655617397909, 0.8299811629993401, 0.8647370795044765, 0.8425988950731241, 0.8365988950731241, 0.8492655617397908, 0.8312655617397909, 0.8447370795044766, 0.8425988950731241, 0.8512655617397908, 0.8425988950731241, 0.8572655617397908, 0.8672655617397909, 0.8572655617397908, 0.8432655617397908, 0.8492655617397908, 0.8685988950731242, 0.8507370795044766, 0.8507370795044766, 0.8492655617397908, 0.8592655617397909, 0.8512655617397908, 0.8527370795044766, 0.8427370795044766, 0.8412655617397908, 0.8552655617397908, 0.8632655617397909, 0.8512655617397908, 0.8552655617397908, 0.8472655617397908, 0.8587370795044765, 0.8427370795044766, 0.8412655617397908, 0.8572655617397908, 0.8427370795044766, 0.8572655617397908, 0.8652655617397909, 0.8412655617397908, 0.8445988950731241, 0.8472655617397908, 0.8407370795044766, 0.8352655617397908, 0.8587370795044765, 0.8487370795044766, 0.8332655617397908, 0.8405988950731241, 0.8352655617397908, 0.8485988950731241, 0.8352704128378099, 0.8572655617397908, 0.8465988950731241, 0.8572655617397908, 0.8652655617397909, 0.8572655617397908, 0.8512655617397908, 0.8527370795044766, 0.8672704128378099, 0.8587370795044765, 0.8432655617397908, 0.8272655617397909, 0.8485988950731241, 0.8467370795044766, 0.8475764658845454, 0.8632655617397909, 0.8412655617397908, 0.8252655617397909, 0.8527370795044766, 0.8352655617397908, 0.8372655617397908, 0.8432655617397908, 0.8372655617397908, 0.8492655617397908, 0.8507370795044766, 0.8465988950731241, 0.8287370795044766, 0.8352655617397908, 0.8527370795044766, 0.8319370795044766, 0.8652655617397909, 0.8592655617397909, 0.8492655617397908, 0.8632655617397909, 0.8427370795044766, 0.8472655617397908, 0.8412655617397908, 0.8527370795044766, 0.8527370795044766, 0.8707370795044765, 0.8527370795044766, 0.8332655617397908, 0.8545988950731241, 0.8607370795044765, 0.8432655617397908, 0.8732655617397909, 0.8527370795044766, 0.8472655617397908, 0.8432655617397908, 0.8432655617397908, 0.8647370795044765, 0.8632655617397909, 0.8492655617397908, 0.8572655617397908, 0.8432655617397908, 0.8527370795044766, 0.8552655617397908, 0.8527370795044766, 0.8487370795044766, 0.8492655617397908, 0.8587370795044765, 0.8492655617397908, 0.8405988950731241, 0.8712704128378099, 0.8547370795044766, 0.8567370795044765, 0.8452655617397908, 0.8432655617397908, 0.8652655617397909, 0.8647370795044765, 0.8632655617397909, 0.8652655617397909, 0.8312655617397909, 0.8407370795044766, 0.8485988950731241, 0.8412655617397908, 0.8492655617397908, 0.8527370795044766, 0.8472655617397908, 0.8472655617397908, 0.8477988950731242, 0.8587370795044765, 0.8464655617397908, 0.8507370795044766, 0.8392655617397908, 0.8492655617397908, 0.8712704128378099, 0.8365988950731241, 0.8552655617397908, 0.8612655617397909, 0.8507370795044766, 0.8587370795044765, 0.8212655617397909, 0.8552655617397908, 0.8307370795044766, 0.8607370795044765, 0.8239370795044766, 0.8544704128378099, 0.8532655617397908, 0.8572655617397908, 0.8492655617397908, 0.8487370795044766, 0.8572655617397908, 0.8512655617397908, 0.8507370795044766, 0.8412655617397908, 0.8572655617397908, 0.8472655617397908, 0.8572655617397908, 0.8492655617397908, 0.8567370795044765, 0.8552655617397908, 0.8425988950731241, 0.8512655617397908, 0.8492655617397908, 0.8547370795044766, 0.8625988950731242, 0.8592655617397909, 0.8592655617397909]</v>
-      </c>
-      <c r="M2" t="str">
-        <v>Modality</v>
+      <c r="F2" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[1.7927315, 1.1401163, 0.9831116, 0.9048015, 0.8015858, 0.63716173, 0.56608033, 0.52996576, 0.4958303, 0.45723274, 0.33574894, 0.25024867, 0.20840861, 0.19914497, 0.16557972, 0.094641626, 0.06599792, 0.04236535, 0.032830447, 0.022580642, 0.018783372, 0.012435628, 0.011009424, 0.010848238, 0.008208804, 0.0067075794, 0.006556281, 0.008076719, 0.007933706, 0.005366219, 0.0047973236, 0.004887061, 0.004445296, 0.004077717, 0.0047912663, 0.0039249696, 0.0035518045, 0.0036989842, 0.0041138506, 0.0035577915, 0.0036700678, 0.0038367244, 0.0034745925, 0.0033109433, 0.0034932029, 0.0032869747, 0.0033763128, 0.0035607421, 0.0032691283, 0.0037095554, 0.0046538366, 0.0036134892, 0.0033357942, 0.004046593, 0.003447659, 0.0032168573, 0.003416654, 0.0033022063, 0.0034619642, 0.0035739946, 0.0036942917, 0.0034191853, 0.003299025, 0.0037745447, 0.0034011435, 0.003260901, 0.003393603, 0.003433634, 0.0031591689, 0.0033259178, 0.0034190589, 0.0033068163, 0.003195457, 0.0033915138, 0.0032522029, 0.003866598, 0.0034842088, 0.0035372002, 0.003378505, 0.0032999655, 0.0032340174, 0.0031656967, 0.0035416356, 0.0032199114, 0.003316018, 0.0033561585, 0.0033746636, 0.003331207, 0.003320281, 0.0034711855, 0.0034405566, 0.0033159298, 0.0032569692, 0.0031794982, 0.0032459307, 0.0033134883, 0.0033094925, 0.0032602286, 0.0032981557, 0.0035031291, 0.0032856772, 0.0037392115, 0.0044711935, 0.0032045373, 0.0033525582, 0.00364473, 0.0033155507, 0.004168178, 0.0037300074, 0.0042196456, 0.0032769537, 0.0034643107, 0.0031152188, 0.0040518716, 0.0035396505, 0.0030892259, 0.0037665796, 0.0032397842, 0.003279562, 0.0030746525, 0.0033098578, 0.003340475, 0.003472203, 0.003241057, 0.0033876789, 0.0034843108, 0.003510918, 0.0034953963, 0.0032346677, 0.0035007338, 0.0031889025, 0.0033441824, 0.0034103359, 0.0031492554, 0.0031697857, 0.0033172036, 0.003293137, 0.004459423, 0.0032028598, 0.003258755, 0.0034473839, 0.0032054333, 0.00334169, 0.0038641053, 0.0032670659, 0.0035199278, 0.0033162138, 0.003124582, 0.00336479, 0.0033406494, 0.0037413633, 0.003253047, 0.0033796714, 0.0032984498, 0.003382749, 0.0034197678, 0.0032501377, 0.003564623, 0.0035205907, 0.0033236016, 0.0033105172, 0.0031878662, 0.0033652552, 0.003455393, 0.003655493, 0.0032742757, 0.00346461, 0.003471486, 0.0037312275, 0.0035123557, 0.0033003727, 0.003355746, 0.0034953535, 0.0032676065, 0.0032193174, 0.0031747662, 0.0031236524, 0.0039862557, 0.0032405385, 0.0034365503, 0.0034220486, 0.0034533984, 0.0032184457, 0.0033884912, 0.0035890979, 0.003151338, 0.0035286958, 0.0035307514, 0.004196656, 0.0035677208, 0.0033640459, 0.003313513, 0.003247776, 0.0031524533, 0.003097295, 0.0031834024, 0.0034334606, 0.0033530295, 0.0032148575, 0.0033384445]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[42.25, 56.96875, 61.375, 63.5, 66.65625, 74.59375, 77.46875, 79.53125, 81.34375, 82.65625, 87.6875, 91.5, 93.46875, 93.46875, 94.65625, 97.4375, 98.3125, 99.125, 99.4375, 99.6875, 99.75, 99.9375, 99.84375, 99.875, 99.90625, 99.9375, 99.96875, 99.875, 99.90625, 99.9375, 99.96875, 99.96875, 99.96875, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 99.96875, 99.90625, 99.96875, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 99.96875, 100.0, 100.0, 99.96875, 100.0, 100.0, 99.96875, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 99.96875, 100.0, 100.0, 99.96875, 100.0, 100.0, 99.96875, 100.0, 99.96875, 99.96875, 99.96875, 100.0, 100.0, 100.0, 99.9375, 99.96875, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 99.96875, 100.0, 100.0, 100.0, 99.96875, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 99.96875, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[1.1801373, 0.68966466, 0.6294638, 0.7122586, 0.8126519, 0.7936994, 0.8510661, 0.8532214, 0.85886896, 0.8682887, 0.8802968, 0.86658525, 0.8517156, 0.86703485, 0.87412655, 0.8830077, 0.8708635, 0.8684646, 0.8996321, 0.8646774, 0.85625196, 0.86935425, 0.8580242, 0.8550765, 0.87840056, 0.8466458, 0.8673026, 0.86434394, 0.84818745, 0.86434287, 0.85993475, 0.8579132, 0.88835007, 0.86085635, 0.8652011, 0.88069147, 0.8684313, 0.88047665, 0.8942401, 0.8718894]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[1.2487729, 1.1120486, 1.0546038, 0.9789447, 0.9557519, 0.7369747, 0.8272747, 0.76711786, 0.77220833, 0.7882168, 0.6948637, 0.83239585, 0.8512592, 0.77050596, 0.8959183, 0.79912007, 0.759048, 0.84939617, 0.8634549, 0.9326017, 0.853176, 0.89073205, 0.8953121, 0.82822835, 0.85534155, 0.8799375, 0.85471267, 0.98149765, 0.8888872, 0.89692277, 0.9271404, 0.9487725, 0.9263987, 0.9272574, 1.0066425, 0.92503804, 0.92832124, 0.9892726, 0.9622263, 0.97900844, 0.94654155, 0.9740072, 0.90738463, 0.9559141, 0.9719924, 0.94130707, 0.95059735, 0.9622984, 0.94060445, 0.922362, 0.96683484, 0.96265006, 0.93628013, 0.93950796, 0.93719184, 0.9379471, 0.96095157, 0.9759965, 0.96923655, 0.9350704, 0.9359962, 0.9483226, 0.9647564, 0.97032195, 0.9437165, 0.9343327, 0.95240617, 0.96002495, 0.96549356, 0.9609919, 0.95382315, 0.9826454, 0.94604045, 0.97600204, 0.96569484, 0.95165247, 0.9625971, 0.9604045, 0.96327615, 0.9521364, 0.9505341, 0.94082266, 0.94544446, 0.93232584, 0.91731083, 0.9562566, 0.9451402, 0.9528382, 0.95045257, 0.9558721, 0.95366883, 0.9900087, 0.98936075, 0.9586638, 0.9614331, 0.9322077, 0.9865402, 0.98591703, 0.97306436, 0.94339305, 0.97460103, 0.9797715, 1.0057664, 1.0072902, 0.94533, 0.97509456, 0.9383676, 0.9629035, 0.94914186, 0.9330082, 0.9939641, 0.9428191, 0.8942802, 0.9524978, 0.9474996, 0.96010983, 0.9652159, 0.9435618, 0.96483076, 0.9579308, 0.9392428, 0.9327249, 0.9793362, 0.9413573, 0.9373033, 0.93022746, 0.9559676, 0.92369545, 0.9725602, 0.9597888, 1.0038878, 0.9306307, 0.9264815, 0.92256975, 0.9553404, 0.9788294, 0.93564665, 0.9348434, 0.95222056, 0.9617171, 0.9195944, 0.9385406, 0.94753885, 0.9694162, 0.96636766, 0.93738735, 0.96732545, 0.96677583, 0.94935244, 0.9486365, 0.9010226, 0.9418692, 0.97180325, 0.9929496, 0.9914316, 0.95945793, 0.9588151, 0.9693996, 0.9664686, 0.9790423, 0.95734316, 0.9873389, 0.9362279, 0.9710137, 0.97781706, 0.9980688, 0.96375537, 0.9652236, 0.99204564, 0.94620264, 0.95451933, 0.96477634, 0.9053619, 0.973688, 0.9341425, 0.9804733, 0.9228657, 1.0207965, 1.0011725, 0.9450742, 0.97381204, 0.93601304, 0.9360348, 0.9569087, 0.9604949, 0.9883, 0.9449281, 0.94523215, 0.9198027, 0.9168006, 0.9229814, 0.9240839, 0.92959034, 0.93927395, 0.89794147, 0.9639961, 0.97288406, 0.9560455, 0.9592626, 0.9523972]</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[50.4, 57.599999999999994, 62.4, 60.0, 61.6, 72.0, 71.2, 72.0, 68.0, 74.4, 76.8, 76.0, 76.8, 77.60000000000001, 78.4, 77.60000000000001, 79.2, 78.4, 78.4, 78.4, 80.0, 80.0, 78.4, 80.0, 84.0, 81.6, 83.2, 80.80000000000001, 82.39999999999999, 80.80000000000001, 80.80000000000001, 80.80000000000001, 80.0, 83.2, 79.2, 82.39999999999999, 80.0, 79.2, 80.80000000000001, 79.2, 80.0, 80.0, 81.6, 80.0, 81.6, 83.2, 81.6, 80.80000000000001, 80.80000000000001, 82.39999999999999, 80.80000000000001, 80.80000000000001, 81.6, 82.39999999999999, 81.6, 81.6, 80.0, 80.0, 81.6, 82.39999999999999, 81.6, 81.6, 80.80000000000001, 81.6, 80.0, 80.80000000000001, 81.6, 80.0, 81.6, 82.39999999999999, 80.0, 80.0, 80.80000000000001, 80.0, 79.2, 81.6, 80.80000000000001, 79.2, 80.0, 80.0, 80.80000000000001, 79.2, 82.39999999999999, 80.0, 81.6, 83.2, 81.6, 81.6, 81.6, 83.2, 81.6, 80.80000000000001, 79.2, 80.0, 80.80000000000001, 80.80000000000001, 82.39999999999999, 80.0, 78.4, 81.6, 80.0, 80.0, 80.80000000000001, 80.0, 80.80000000000001, 80.80000000000001, 80.0, 78.4, 80.0, 81.6, 79.2, 83.2, 82.39999999999999, 80.80000000000001, 82.39999999999999, 80.0, 80.80000000000001, 80.0, 81.6, 81.6, 83.2, 81.6, 79.2, 80.80000000000001, 82.39999999999999, 80.80000000000001, 84.0, 81.6, 80.80000000000001, 80.80000000000001, 80.0, 82.39999999999999, 82.39999999999999, 80.80000000000001, 81.6, 80.80000000000001, 81.6, 81.6, 81.6, 80.80000000000001, 80.80000000000001, 82.39999999999999, 81.6, 79.2, 83.2, 81.6, 81.6, 80.80000000000001, 80.80000000000001, 82.39999999999999, 82.39999999999999, 82.39999999999999, 83.2, 79.2, 80.0, 80.0, 80.0, 80.80000000000001, 81.6, 80.80000000000001, 80.80000000000001, 80.80000000000001, 81.6, 80.80000000000001, 80.80000000000001, 80.0, 80.80000000000001, 83.2, 79.2, 81.6, 82.39999999999999, 80.80000000000001, 81.6, 78.4, 81.6, 79.2, 82.39999999999999, 78.4, 81.6, 81.6, 82.39999999999999, 80.80000000000001, 80.80000000000001, 82.39999999999999, 81.6, 80.80000000000001, 80.0, 81.6, 80.80000000000001, 81.6, 81.6, 81.6, 81.6, 80.0, 81.6, 80.80000000000001, 81.6, 81.6, 82.39999999999999, 82.39999999999999]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>[0.5522494753109006, 0.6013907943657143, 0.6786664725628473, 0.6330006074435448, 0.6779162942550133, 0.7788693089871226, 0.7684964819606791, 0.7725193264287483, 0.7331483632503607, 0.7893515420300875, 0.82088386228118, 0.8088617587519672, 0.8074186789216264, 0.8079254320516518, 0.8148916843786413, 0.8180263293429465, 0.8270298688099937, 0.8258478296660068, 0.8207370795044766, 0.8245585798275369, 0.8347370795044766, 0.8367370795044766, 0.8192655617397909, 0.8427370795044766, 0.8752655617397909, 0.8492655617397908, 0.8652655617397909, 0.8432655617397908, 0.8572655617397908, 0.8492655617397908, 0.8432655617397908, 0.8525988950731241, 0.8427370795044766, 0.8692655617397909, 0.8299811629993401, 0.8647370795044765, 0.8425988950731241, 0.8365988950731241, 0.8492655617397908, 0.8312655617397909, 0.8447370795044766, 0.8425988950731241, 0.8512655617397908, 0.8425988950731241, 0.8572655617397908, 0.8672655617397909, 0.8572655617397908, 0.8432655617397908, 0.8492655617397908, 0.8685988950731242, 0.8507370795044766, 0.8507370795044766, 0.8492655617397908, 0.8592655617397909, 0.8512655617397908, 0.8527370795044766, 0.8427370795044766, 0.8412655617397908, 0.8552655617397908, 0.8632655617397909, 0.8512655617397908, 0.8552655617397908, 0.8472655617397908, 0.8587370795044765, 0.8427370795044766, 0.8412655617397908, 0.8572655617397908, 0.8427370795044766, 0.8572655617397908, 0.8652655617397909, 0.8412655617397908, 0.8445988950731241, 0.8472655617397908, 0.8407370795044766, 0.8352655617397908, 0.8587370795044765, 0.8487370795044766, 0.8332655617397908, 0.8405988950731241, 0.8352655617397908, 0.8485988950731241, 0.8352704128378099, 0.8572655617397908, 0.8465988950731241, 0.8572655617397908, 0.8652655617397909, 0.8572655617397908, 0.8512655617397908, 0.8527370795044766, 0.8672704128378099, 0.8587370795044765, 0.8432655617397908, 0.8272655617397909, 0.8485988950731241, 0.8467370795044766, 0.8475764658845454, 0.8632655617397909, 0.8412655617397908, 0.8252655617397909, 0.8527370795044766, 0.8352655617397908, 0.8372655617397908, 0.8432655617397908, 0.8372655617397908, 0.8492655617397908, 0.8507370795044766, 0.8465988950731241, 0.8287370795044766, 0.8352655617397908, 0.8527370795044766, 0.8319370795044766, 0.8652655617397909, 0.8592655617397909, 0.8492655617397908, 0.8632655617397909, 0.8427370795044766, 0.8472655617397908, 0.8412655617397908, 0.8527370795044766, 0.8527370795044766, 0.8707370795044765, 0.8527370795044766, 0.8332655617397908, 0.8545988950731241, 0.8607370795044765, 0.8432655617397908, 0.8732655617397909, 0.8527370795044766, 0.8472655617397908, 0.8432655617397908, 0.8432655617397908, 0.8647370795044765, 0.8632655617397909, 0.8492655617397908, 0.8572655617397908, 0.8432655617397908, 0.8527370795044766, 0.8552655617397908, 0.8527370795044766, 0.8487370795044766, 0.8492655617397908, 0.8587370795044765, 0.8492655617397908, 0.8405988950731241, 0.8712704128378099, 0.8547370795044766, 0.8567370795044765, 0.8452655617397908, 0.8432655617397908, 0.8652655617397909, 0.8647370795044765, 0.8632655617397909, 0.8652655617397909, 0.8312655617397909, 0.8407370795044766, 0.8485988950731241, 0.8412655617397908, 0.8492655617397908, 0.8527370795044766, 0.8472655617397908, 0.8472655617397908, 0.8477988950731242, 0.8587370795044765, 0.8464655617397908, 0.8507370795044766, 0.8392655617397908, 0.8492655617397908, 0.8712704128378099, 0.8365988950731241, 0.8552655617397908, 0.8612655617397909, 0.8507370795044766, 0.8587370795044765, 0.8212655617397909, 0.8552655617397908, 0.8307370795044766, 0.8607370795044765, 0.8239370795044766, 0.8544704128378099, 0.8532655617397908, 0.8572655617397908, 0.8492655617397908, 0.8487370795044766, 0.8572655617397908, 0.8512655617397908, 0.8507370795044766, 0.8412655617397908, 0.8572655617397908, 0.8472655617397908, 0.8572655617397908, 0.8492655617397908, 0.8567370795044765, 0.8552655617397908, 0.8425988950731241, 0.8512655617397908, 0.8492655617397908, 0.8547370795044766, 0.8625988950731242, 0.8592655617397909, 0.8592655617397909]</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Modality</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>premedAbnormality</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>200</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[1.7852178, 1.1435266, 0.9787165, 0.88779527, 0.8138261, 0.6511322, 0.57693994, 0.5287604, 0.4866452, 0.45441508, 0.31233925, 0.23607327, 0.18985665, 0.22064221, 0.18130341, 0.101264246, 0.06594546, 0.040143266, 0.039933994, 0.05950384, 0.023525605, 0.020679276, 0.01935052, 0.010736232, 0.010865957, 0.010078769, 0.008179426, 0.007994074, 0.006090051, 0.0052611367, 0.005937841, 0.0054891263, 0.004854124, 0.004849465, 0.007983798, 0.0051826155, 0.0040198974, 0.0042181164, 0.0039808983, 0.0039363895, 0.0038086495, 0.0039267493, 0.0037053865, 0.0035863582, 0.0035512662, 0.0037290435, 0.0037494013, 0.0034943647, 0.0041103186, 0.0045184563, 0.0042611463, 0.003654464, 0.0037426425, 0.0037468106, 0.003601051, 0.0036155367, 0.00348926, 0.003732643, 0.0036772063, 0.0034637433, 0.0042037726, 0.003791703, 0.0035807146, 0.0034190216, 0.0034358734, 0.0034110032, 0.0037748842, 0.003435517, 0.0038736183, 0.003551708, 0.0034662539, 0.0040489878, 0.0035478014, 0.003878985, 0.0037752516, 0.003416397, 0.0036167928, 0.0038041645, 0.0034197976, 0.0034014112, 0.0033525343, 0.0037540493, 0.0037507287, 0.0035491174, 0.003413362, 0.0036845838, 0.0035300076, 0.0035628728, 0.0036844206, 0.0035400249, 0.00396137, 0.0036051134, 0.0035248513, 0.0035535216, 0.0034958667, 0.0036451984, 0.003757705, 0.0042679133, 0.0036462713, 0.004004551, 0.004105976, 0.0037198958, 0.0035391545, 0.0035206524, 0.0037114387, 0.0036813102, 0.0034543187, 0.0037400245, 0.003839423, 0.00396767, 0.0038277477, 0.003884499, 0.003493025, 0.003577855, 0.003694384, 0.0035701534, 0.0035657298, 0.0038090285, 0.003855235, 0.0036960007, 0.0036573142, 0.0033492362, 0.0034691799, 0.0037604903, 0.0034039968, 0.0044016303, 0.0036708147, 0.0035905063, 0.0037418238, 0.0034007472, 0.003590274, 0.00362348, 0.0038403496, 0.0037266507, 0.003459449, 0.0032986102, 0.0035459131, 0.004042203, 0.003638795, 0.0035789805, 0.0035743637, 0.0036758005, 0.003786981, 0.0042031347, 0.00350459, 0.0035697576, 0.0034036064, 0.004636323, 0.0034676874, 0.0033307814, 0.0044081514, 0.0033176795, 0.0035615012, 0.0032933725, 0.0036158327, 0.0035953678, 0.0033741707, 0.0033329185, 0.0035747297, 0.0034299726, 0.00508306, 0.0038727545, 0.0036014598, 0.003681696, 0.0035142335, 0.003374139, 0.0034865553, 0.005195407, 0.0037833839, 0.0037031611, 0.0034096723, 0.0041021346, 0.0033986736, 0.0034601698, 0.0035816154, 0.0035215137, 0.0034056166, 0.0038903917, 0.0034428257, 0.0035294616, 0.0038431082, 0.003795539, 0.0034960657, 0.0034962285, 0.0040648934, 0.003732941, 0.003598107, 0.0035799788, 0.0035367631, 0.0036543382, 0.00363751, 0.0033946615, 0.0035898394, 0.0034171676, 0.0034770272, 0.0033151517, 0.003668076, 0.0034272284, 0.0033679646, 0.0034651072]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[42.4375, 57.375, 60.78125, 64.0625, 67.96875, 73.875, 77.1875, 79.75, 81.96875, 82.90625, 89.1875, 92.0, 94.0, 92.625, 93.90625, 97.5, 98.625, 99.34375, 99.15625, 98.5625, 99.59375, 99.65625, 99.71875, 99.9375, 99.875, 99.90625, 99.90625, 99.90625, 99.9375, 100.0, 99.9375, 99.9375, 100.0, 99.96875, 99.9375, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 99.96875, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 99.9375, 100.0, 100.0, 99.96875, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 99.96875, 99.96875, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 99.96875, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 99.96875, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 99.96875, 100.0, 99.96875, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 99.9375, 100.0, 99.96875, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 99.96875, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[1.1852692, 0.75240475, 0.6403304, 0.690374, 0.80455077, 0.8226957, 0.8404237, 0.8839668, 0.886338, 0.8736998, 0.90523005, 0.8978264, 0.877577, 0.8843376, 0.8970818, 0.8990778, 0.8763858, 0.8915509, 0.88687, 0.86630523, 0.89797384, 0.8887757, 0.8960363, 0.8918542, 0.9008491, 0.89132357, 0.88635755, 0.89170516, 0.9011585, 0.8756408, 0.88926, 0.89375186, 0.8782348, 0.8671437, 0.876957, 0.87519085, 0.89416015, 0.88457555, 0.89366347, 0.8798991]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[1.2168038, 1.0839616, 1.0493232, 0.91779804, 0.9719875, 0.7785691, 0.800026, 0.85916376, 0.7473939, 0.7455299, 0.61093956, 0.62599736, 0.59075236, 0.8491392, 0.8034729, 0.6078367, 0.71176934, 0.70618224, 0.78375584, 0.6815477, 0.6884203, 0.76385593, 0.7083746, 0.69921863, 0.67940557, 0.6942034, 0.6719624, 0.70391524, 0.67277, 0.68399787, 0.6961267, 0.69961655, 0.7103108, 0.6568658, 0.7386159, 0.7051182, 0.6965399, 0.7429156, 0.7051436, 0.667565, 0.71279323, 0.667415, 0.73713684, 0.69756585, 0.7026525, 0.7045226, 0.7269794, 0.6661551, 0.7142919, 0.7358986, 0.7208402, 0.7245798, 0.6945303, 0.70685256, 0.68593144, 0.6792096, 0.7154402, 0.70251274, 0.7454506, 0.70189, 0.68900585, 0.7027072, 0.71166265, 0.7071789, 0.69388366, 0.71443903, 0.7190103, 0.72919357, 0.6955098, 0.70789087, 0.71072745, 0.7114122, 0.7414147, 0.7040322, 0.7111838, 0.70515954, 0.6884973, 0.70513844, 0.70930505, 0.6751561, 0.6949552, 0.70590734, 0.68775165, 0.70514244, 0.6623509, 0.6750885, 0.7164273, 0.707533, 0.6911707, 0.7266141, 0.7670204, 0.6890957, 0.74203753, 0.72558355, 0.6946798, 0.6694088, 0.71410257, 0.73608327, 0.67266417, 0.7042507, 0.67811126, 0.6936499, 0.7092546, 0.72528094, 0.7193011, 0.7134044, 0.7174021, 0.7021718, 0.6944139, 0.74134994, 0.69176334, 0.7042163, 0.70826405, 0.6940969, 0.7050859, 0.686357, 0.67708147, 0.6938123, 0.691531, 0.7009104, 0.7353141, 0.6971285, 0.71697086, 0.6896992, 0.6967554, 0.6880714, 0.7288795, 0.7371871, 0.73524576, 0.6824403, 0.6858341, 0.7254822, 0.7256663, 0.7153527, 0.71232724, 0.69101715, 0.7080451, 0.6829159, 0.7012024, 0.721099, 0.68734336, 0.7206336, 0.6826409, 0.68932784, 0.66882706, 0.7029215, 0.73166466, 0.67957574, 0.69489926, 0.7241893, 0.6791965, 0.7067838, 0.7273685, 0.7476747, 0.72944593, 0.66375965, 0.6887332, 0.7540997, 0.66479003, 0.7454784, 0.71939385, 0.6833608, 0.6935389, 0.70127463, 0.7237277, 0.7067722, 0.68218863, 0.7194589, 0.73329616, 0.686393, 0.7333605, 0.7008053, 0.6944034, 0.6919082, 0.7274157, 0.6869861, 0.6742524, 0.7389804, 0.7461957, 0.7137612, 0.6607457, 0.6914666, 0.7117469, 0.70360136, 0.6947119, 0.6876923, 0.7138449, 0.7186711, 0.71164525, 0.7110145, 0.7015821, 0.70576274, 0.7310633, 0.6498222, 0.66241866, 0.7162192, 0.68354577, 0.71389234, 0.6769914, 0.65903014]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>[48.0, 59.199999999999996, 60.8, 65.60000000000001, 59.199999999999996, 71.2, 70.39999999999999, 69.6, 71.2, 76.0, 83.2, 80.80000000000001, 84.8, 80.80000000000001, 76.8, 84.0, 84.0, 82.39999999999999, 80.80000000000001, 86.4, 87.2, 85.6, 84.8, 85.6, 87.2, 86.4, 85.6, 86.4, 85.6, 86.4, 86.4, 84.8, 87.2, 85.6, 85.6, 84.0, 85.6, 87.2, 85.6, 85.6, 85.6, 85.6, 86.4, 84.8, 86.4, 84.8, 87.2, 87.2, 87.2, 84.8, 86.4, 87.2, 86.4, 87.2, 85.6, 87.2, 85.6, 86.4, 86.4, 87.2, 84.8, 86.4, 85.6, 86.4, 86.4, 87.2, 87.2, 86.4, 84.8, 85.6, 85.6, 86.4, 86.4, 85.6, 85.6, 86.4, 86.4, 86.4, 86.4, 84.8, 85.6, 86.4, 87.2, 84.8, 87.2, 85.6, 84.8, 84.8, 87.2, 85.6, 86.4, 85.6, 86.4, 86.4, 86.4, 85.6, 85.6, 84.8, 86.4, 85.6, 86.4, 86.4, 84.8, 84.8, 87.2, 85.6, 85.6, 86.4, 86.4, 84.8, 87.2, 85.6, 84.0, 85.6, 85.6, 86.4, 84.8, 86.4, 87.2, 86.4, 84.8, 86.4, 85.6, 86.4, 85.6, 85.6, 85.6, 85.6, 86.4, 88.0, 86.4, 87.2, 87.2, 86.4, 87.2, 87.2, 86.4, 86.4, 86.4, 84.8, 86.4, 84.8, 85.6, 85.6, 87.2, 86.4, 87.2, 85.6, 87.2, 84.8, 87.2, 87.2, 84.8, 84.8, 85.6, 84.8, 85.6, 85.6, 85.6, 83.2, 87.2, 85.6, 86.4, 84.8, 84.8, 84.0, 86.4, 86.4, 85.6, 86.4, 87.2, 86.4, 84.8, 85.6, 86.4, 86.4, 87.2, 86.4, 86.4, 86.4, 85.6, 87.2, 86.4, 86.4, 85.6, 86.4, 85.6, 88.0, 85.6, 85.6, 85.6, 86.4, 85.6, 87.2, 88.0, 85.6, 86.4, 85.6, 85.6, 85.6]</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>[0.5362414675112875, 0.6173907943657143, 0.6583383406781388, 0.6935720903249796, 0.6593377945780736, 0.7662070252970996, 0.7498679648421139, 0.7544730772363988, 0.7696433699560491, 0.8148788341036174, 0.8699014403717397, 0.8476581444859155, 0.871253914286966, 0.8435202636357962, 0.8027162561683872, 0.8700214782449275, 0.8633663809230541, 0.854447600883778, 0.8373548115782607, 0.8925988950731242, 0.8979322284064575, 0.8817451093822225, 0.8717451093822225, 0.8824117760488891, 0.898688144911594, 0.8904117760488891, 0.8843225262104193, 0.8897451093822225, 0.8816558595437526, 0.8916558595437526, 0.8945988950731242, 0.8744117760488891, 0.9013548115782608, 0.8797451093822225, 0.8845988950731242, 0.8656558595437527, 0.8816558595437526, 0.8930784427155559, 0.880501025887359, 0.8797451093822225, 0.8845988950731242, 0.8816558595437526, 0.8925988950731242, 0.8756558595437526, 0.8896558595437526, 0.8756558595437526, 0.898688144911594, 0.8957451093822225, 0.8957451093822225, 0.8759322284064575, 0.8896558595437526, 0.8957451093822225, 0.8877451093822225, 0.9013548115782608, 0.8797451093822225, 0.9005988950731242, 0.8845988950731242, 0.890688144911594, 0.8925988950731242, 0.896777394750064, 0.8736558595437526, 0.8877451093822225, 0.8797451093822225, 0.8925988950731242, 0.8877451093822226, 0.8930784427155559, 0.8957451093822225, 0.8925988950731242, 0.8744117760488891, 0.8824117760488891, 0.8816558595437526, 0.8850784427155559, 0.8877451093822225, 0.8845988950731242, 0.8817451093822225, 0.8896558595437526, 0.8925988950731242, 0.8925988950731242, 0.8945988950731242, 0.8736558595437526, 0.878989192877086, 0.8877451093822226, 0.898688144911594, 0.8765988950731242, 0.898688144911594, 0.8816558595437526, 0.8736558595437526, 0.8783225262104193, 0.9005988950731242, 0.8872655617397909, 0.890688144911594, 0.8816558595437526, 0.8870784427155559, 0.886989192877086, 0.886989192877086, 0.8824117760488891, 0.8853548115782608, 0.8756558595437526, 0.8925988950731242, 0.8845988950731242, 0.8877451093822225, 0.8877451093822225, 0.874501025887359, 0.8737451093822225, 0.8957451093822225, 0.8816558595437526, 0.8816558595437526, 0.8925988950731242, 0.8877451093822225, 0.8766881449115941, 0.8986881449115941, 0.8797451093822225, 0.8684117760488891, 0.878989192877086, 0.8824117760488891, 0.8877451093822225, 0.870989192877086, 0.8877451093822225, 0.9005988950731242, 0.8899322284064575, 0.8792655617397909, 0.8925988950731242, 0.8817451093822225, 0.8896558595437526, 0.8816558595437526, 0.8816558595437526, 0.8824117760488891, 0.8819322284064575, 0.890688144911594, 0.9037451093822225, 0.8877451093822225, 0.9005988950731242, 0.898688144911594, 0.8858343592206924, 0.898688144911594, 0.9005988950731242, 0.8925988950731242, 0.8858343592206924, 0.8877451093822225, 0.8756558595437526, 0.8925988950731242, 0.8765988950731242, 0.8797451093822225, 0.8843225262104193, 0.8976558595437526, 0.8925988950731242, 0.9005988950731242, 0.8816558595437526, 0.8957451093822225, 0.8736558595437526, 0.9005988950731242, 0.8957451093822225, 0.8744117760488891, 0.8764117760488891, 0.8845988950731242, 0.8736558595437526, 0.8797451093822225, 0.8845988950731242, 0.8817451093822225, 0.8596558595437527, 0.8957451093822225, 0.8824117760488891, 0.8925988950731242, 0.8744117760488891, 0.8736558595437526, 0.8657451093822225, 0.8904117760488891, 0.8952655617397909, 0.8817451093822225, 0.8850784427155559, 0.8957451093822225, 0.8925988950731242, 0.8763225262104193, 0.8797451093822225, 0.8877451093822225, 0.8896558595437526, 0.8957451093822225, 0.8925988950731242, 0.8904117760488891, 0.8877451093822225, 0.8816558595437526, 0.8979322284064575, 0.8925988950731242, 0.8877451093822225, 0.8817451093822225, 0.8925988950731242, 0.878989192877086, 0.9018343592206924, 0.878989192877086, 0.8816558595437526, 0.8845988950731242, 0.8925988950731242, 0.8819322284064575, 0.8957451093822226, 0.904777394750064, 0.8797451093822225, 0.8925988950731242, 0.8797451093822225, 0.8843225262104193, 0.8797451093822225]</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Modality</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>premedAbnormality2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>200</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[7.5276656, 7.279133, 7.0856323, 7.0122657, 6.981975, 6.8990498, 6.89473, 6.9005265, 6.906771, 6.9085474, 6.856138, 6.8582845, 6.863824, 6.8713856, 6.8764606, 6.8204565, 6.7850842, 6.7078657, 6.604965, 6.521193, 6.3868814, 6.333112, 6.3000884, 6.255806, 6.207451, 6.100121, 6.0404587, 6.0134144, 5.972443, 5.9446573, 5.8587017, 5.814252, 5.7987595, 5.7692647, 5.734369, 5.678019, 5.6512523, 5.632657, 5.6162586, 5.5985317, 5.555434, 5.5357447, 5.52582, 5.5103216, 5.4988217, 5.471632, 5.4641023, 5.4577913, 5.446635, 5.439868, 5.4260736, 5.4166093, 5.4186053, 5.41182, 5.4064784, 5.396607, 5.394164, 5.3927603, 5.3870435, 5.3851066, 5.385712, 5.3780837, 5.380805, 5.382241, 5.381095, 5.3740025, 5.373675, 5.374114, 5.3770523, 5.37109, 5.372207, 5.36921, 5.373322, 5.376257, 5.3710566, 5.3711557, 5.3721833, 5.3712544, 5.3712, 5.3726673, 5.3690352, 5.369461, 5.365238, 5.370477, 5.37324, 5.3704634, 5.371423, 5.367741, 5.3730593, 5.370029, 5.372982, 5.3678155, 5.3669286, 5.370564, 5.3678937, 5.365565, 5.366544, 5.369881, 5.37136, 5.3701563, 5.3662825, 5.3678665, 5.3703923, 5.3683023, 5.3704734, 5.3744087, 5.372846, 5.3674464, 5.3673496, 5.3686085, 5.366074, 5.371454, 5.3678093, 5.370983, 5.3707805, 5.3673835, 5.366174, 5.3694687, 5.3694654, 5.367553, 5.370275, 5.3680625, 5.3716116, 5.369544, 5.3712196, 5.369974, 5.366452, 5.3699565, 5.3694086, 5.3695297, 5.366904, 5.368799, 5.367354, 5.3695836, 5.3694153, 5.3694954, 5.3680887, 5.3675222, 5.3659143, 5.370707, 5.3701515, 5.367968, 5.368432, 5.3728523, 5.3669786, 5.369274, 5.370884, 5.369602, 5.3742433, 5.36755, 5.3688927, 5.3723063, 5.367718, 5.368208, 5.3704696, 5.3676805, 5.369203, 5.368931, 5.371404, 5.3701167, 5.367518, 5.3669233, 5.3686976, 5.3674383, 5.371865, 5.3689766, 5.371814, 5.369574, 5.3730297, 5.366255, 5.3714356, 5.3684835, 5.3703847, 5.367554, 5.369822, 5.3684773, 5.3674664, 5.375213, 5.3749676, 5.367678, 5.3627176, 5.369848, 5.3676167, 5.3732862, 5.367642, 5.3673606, 5.3681226, 5.3712187, 5.3656054, 5.370378, 5.3681507, 5.3683753, 5.369203, 5.3672266, 5.373371, 5.3706937, 5.3675475, 5.3662004, 5.3683515, 5.3680005]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[1.7230576441102756, 1.6604010025062657, 2.380952380952381, 2.976190476190476, 3.258145363408521, 3.6654135338345863, 3.7907268170426063, 3.6654135338345863, 3.696741854636591, 3.7280701754385963, 3.7280701754385963, 3.7907268170426063, 3.7593984962406015, 3.7593984962406015, 3.634085213032581, 3.7593984962406015, 3.696741854636591, 3.6027568922305764, 4.291979949874687, 3.7907268170426063, 4.041353383458646, 4.260651629072681, 4.323308270676692, 4.354636591478696, 4.354636591478696, 4.855889724310777, 4.761904761904762, 4.605263157894736, 4.5739348370927315, 5.0438596491228065, 5.263157894736842, 5.545112781954887, 5.294486215538847, 5.106516290726817, 5.451127819548872, 5.670426065162907, 5.764411027568922, 5.701754385964912, 5.733082706766917, 5.764411027568922, 5.983709273182957, 6.109022556390977, 6.140350877192982, 6.171679197994987, 6.234335839598997, 6.140350877192982, 6.390977443609022, 6.4223057644110275, 6.641604010025063, 6.171679197994987, 6.453634085213032, 6.829573934837092, 6.484962406015038, 6.7669172932330826, 6.453634085213032, 6.516290726817042, 6.672932330827068, 6.641604010025063, 6.829573934837092, 6.672932330827068, 6.641604010025063, 6.704260651629072, 6.735588972431078, 6.453634085213032, 6.7669172932330826, 6.735588972431078, 6.610275689223058, 6.672932330827068, 6.610275689223058, 6.672932330827068, 6.704260651629072, 6.672932330827068, 6.672932330827068, 6.798245614035088, 6.516290726817042, 6.7669172932330826, 6.516290726817042, 6.923558897243108, 6.829573934837092, 6.8922305764411025, 6.8922305764411025, 6.704260651629072, 6.986215538847118, 6.516290726817042, 6.641604010025063, 6.7669172932330826, 6.453634085213032, 6.7669172932330826, 6.923558897243108, 6.704260651629072, 6.704260651629072, 6.829573934837092, 6.923558897243108, 6.829573934837092, 6.672932330827068, 6.704260651629072, 6.798245614035088, 6.8922305764411025, 6.8922305764411025, 6.798245614035088, 6.7669172932330826, 6.8922305764411025, 6.672932330827068, 6.829573934837092, 6.923558897243108, 6.610275689223058, 6.547619047619048, 6.829573934837092, 6.860902255639098, 6.735588972431078, 6.829573934837092, 6.923558897243108, 6.735588972431078, 6.610275689223058, 6.798245614035088, 6.672932330827068, 6.735588972431078, 6.641604010025063, 6.641604010025063, 6.7669172932330826, 6.672932330827068, 6.860902255639098, 6.735588972431078, 6.986215538847118, 6.578947368421052, 6.672932330827068, 6.453634085213032, 6.672932330827068, 6.860902255639098, 6.798245614035088, 6.641604010025063, 6.610275689223058, 6.547619047619048, 6.704260651629072, 7.205513784461153, 6.923558897243108, 6.829573934837092, 6.735588972431078, 6.672932330827068, 6.7669172932330826, 6.641604010025063, 6.860902255639098, 6.798245614035088, 6.798245614035088, 6.860902255639098, 6.860902255639098, 6.704260651629072, 6.7669172932330826, 6.672932330827068, 6.735588972431078, 6.829573934837092, 6.641604010025063, 6.610275689223058, 6.7669172932330826, 6.547619047619048, 6.704260651629072, 6.829573934837092, 6.578947368421052, 6.7669172932330826, 6.516290726817042, 6.986215538847118, 6.735588972431078, 6.7669172932330826, 6.610275689223058, 6.672932330827068, 6.578947368421052, 7.048872180451128, 6.735588972431078, 6.798245614035088, 6.798245614035088, 6.610275689223058, 6.7669172932330826, 6.484962406015038, 6.641604010025063, 6.8922305764411025, 6.7669172932330826, 6.704260651629072, 6.672932330827068, 6.735588972431078, 6.7669172932330826, 6.860902255639098, 6.735588972431078, 6.610275689223058, 6.735588972431078, 6.954887218045112, 6.923558897243108, 7.080200501253133, 6.7669172932330826, 6.860902255639098, 6.860902255639098, 6.735588972431078, 6.7669172932330826, 6.7669172932330826, 6.641604010025063, 6.798245614035088, 7.048872180451128, 6.954887218045112, 6.672932330827068, 6.578947368421052, 6.735588972431078]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[7.573506, 8.064293, 8.148852, 8.135074, 7.6978655, 7.549888, 7.584148, 7.5822144, 7.567511, 7.5761437, 7.5647044, 7.572998, 7.5793424, 7.5786357, 7.5859075, 7.5754266, 7.5820904, 7.5913706, 7.5647235, 7.5995097, 7.574868, 7.6010966, 7.5739098, 7.574649, 7.5630608, 7.590364, 7.5822535, 7.586634, 7.559546, 7.593251, 7.5721145, 7.5791717, 7.5979366, 7.570266, 7.585989, 7.5682287, 7.599768, 7.579684, 7.5832005, 7.585727]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[7.611539, 8.045016, 7.9028244, 8.027187, 8.0989685, 8.162158, 8.210557, 8.22875, 8.25885, 8.266146, 8.275584, 8.278633, 8.32185, 8.311508, 8.295362, 8.279476, 8.097989, 7.9951444, 7.958109, 7.890732, 7.8148947, 7.804465, 7.846942, 7.741693, 7.792419, 7.7155886, 7.752605, 7.687733, 7.7096596, 7.7228856, 7.735959, 7.7502394, 7.752331, 7.718687, 7.7175508, 7.7355933, 7.7206936, 7.708265, 7.7424335, 7.7393703, 7.712368, 7.7063007, 7.7184095, 7.7005367, 7.734047, 7.7065024, 7.710534, 7.7167516, 7.6909027, 7.708976, 7.7025647, 7.7093124, 7.6949487, 7.7211256, 7.7118373, 7.711815, 7.6990557, 7.707339, 7.7172427, 7.7043447, 7.692732, 7.725133, 7.72902, 7.718507, 7.723596, 7.7062635, 7.712327, 7.6810255, 7.6989202, 7.7104516, 7.7137804, 7.702901, 7.7002087, 7.6953626, 7.717654, 7.6836157, 7.714728, 7.7207346, 7.678893, 7.7010107, 7.698278, 7.7167416, 7.715857, 7.712764, 7.708005, 7.684455, 7.717755, 7.6848526, 7.69793, 7.6892996, 7.7166395, 7.708687, 7.7015176, 7.7023168, 7.70675, 7.712534, 7.6819005, 7.72114, 7.6990733, 7.713128, 7.707571, 7.703291, 7.6882114, 7.713379, 7.7041287, 7.721079, 7.71131, 7.693014, 7.709509, 7.681545, 7.714515, 7.7135396, 7.6917295, 7.7106514, 7.721071, 7.690524, 7.69412, 7.680368, 7.707298, 7.714617, 7.7132416, 7.704179, 7.692068, 7.713935, 7.7162247, 7.6989827, 7.7035594, 7.7005806, 7.693666, 7.6812086, 7.704751, 7.6988387, 7.714257, 7.6860847, 7.7047405, 7.7160153, 7.7144938, 7.717069, 7.7110195, 7.7013, 7.700614, 7.699744, 7.715234, 7.720348, 7.7460785, 7.691738, 7.730649, 7.6929293, 7.691494, 7.709985, 7.703711, 7.7337785, 7.6957607, 7.714138, 7.710804, 7.7079096, 7.7144456, 7.694375, 7.6949573, 7.70448, 7.690629, 7.7296805, 7.6910625, 7.7258973, 7.715495, 7.7090673, 7.7053394, 7.709338, 7.686306, 7.698227, 7.714036, 7.712409, 7.701031, 7.710371, 7.7484293, 7.6848187, 7.7066073, 7.7013955, 7.703287, 7.6932774, 7.7133055, 7.7001143, 7.712491, 7.6959624, 7.7252116, 7.7086635, 7.699482, 7.700923, 7.7227383, 7.7069597, 7.7119446, 7.7157893, 7.6840644, 7.704674, 7.710045, 7.708414, 7.718586, 7.7218876, 7.697956, 7.695567]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[1.6, 4.8, 5.6000000000000005, 6.4, 4.0, 5.6000000000000005, 4.8, 5.6000000000000005, 5.6000000000000005, 5.6000000000000005, 5.6000000000000005, 5.6000000000000005, 4.8, 4.8, 4.8, 5.6000000000000005, 6.4, 5.6000000000000005, 6.4, 5.6000000000000005, 5.6000000000000005, 6.4, 5.6000000000000005, 5.6000000000000005, 6.4, 5.6000000000000005, 5.6000000000000005, 5.6000000000000005, 5.6000000000000005, 5.6000000000000005, 6.4, 5.6000000000000005, 5.6000000000000005, 5.6000000000000005, 4.8, 4.8, 4.8, 5.6000000000000005, 5.6000000000000005, 4.0, 4.8, 5.6000000000000005, 4.8, 4.8, 4.8, 4.8, 5.6000000000000005, 5.6000000000000005, 4.8, 5.6000000000000005, 5.6000000000000005, 5.6000000000000005, 4.8, 4.0, 5.6000000000000005, 5.6000000000000005, 5.6000000000000005, 4.8, 4.0, 4.8, 4.8, 4.0, 4.8, 4.8, 4.0, 4.8, 4.8, 4.8, 4.8, 4.8, 5.6000000000000005, 4.8, 5.6000000000000005, 4.8, 4.8, 5.6000000000000005, 4.0, 4.0, 4.8, 4.8, 4.8, 4.8, 4.8, 4.8, 4.8, 4.8, 4.8, 4.8, 4.8, 4.8, 4.8, 4.8, 5.6000000000000005, 4.8, 4.0, 5.6000000000000005, 4.8, 4.8, 4.8, 4.0, 4.0, 4.8, 4.8, 5.6000000000000005, 5.6000000000000005, 4.8, 5.6000000000000005, 5.6000000000000005, 4.8, 4.8, 4.8, 5.6000000000000005, 4.8, 4.0, 4.8, 5.6000000000000005, 5.6000000000000005, 4.8, 4.8, 4.8, 4.8, 4.0, 5.6000000000000005, 4.8, 4.8, 5.6000000000000005, 5.6000000000000005, 4.0, 5.6000000000000005, 5.6000000000000005, 4.0, 4.8, 4.8, 4.8, 4.8, 4.0, 4.8, 4.0, 4.8, 4.8, 4.8, 4.8, 4.8, 4.0, 4.8, 4.8, 4.8, 5.6000000000000005, 5.6000000000000005, 4.8, 4.8, 4.0, 4.8, 4.8, 4.0, 5.6000000000000005, 4.0, 4.8, 4.8, 5.6000000000000005, 4.8, 4.8, 5.6000000000000005, 4.8, 4.8, 4.8, 5.6000000000000005, 4.8, 5.6000000000000005, 5.6000000000000005, 4.8, 4.8, 4.8, 4.8, 4.8, 4.0, 4.8, 5.6000000000000005, 5.6000000000000005, 4.0, 4.0, 5.6000000000000005, 4.8, 5.6000000000000005, 4.8, 4.8, 4.8, 4.8, 4.8, 5.6000000000000005, 4.8, 4.0, 5.6000000000000005, 5.6000000000000005, 5.6000000000000005, 4.8, 4.8, 4.8, 5.6000000000000005, 4.8]</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>[0.016, 0.048, 0.056, 0.0650826822658929, 0.04496578319614865, 0.056, 0.0490826822658929, 0.056, 0.056, 0.056, 0.056, 0.056, 0.0490826822658929, 0.0490826822658929, 0.0490826822658929, 0.056, 0.0690826822658929, 0.056, 0.068, 0.057155944821447834, 0.056, 0.064, 0.06007326255555493, 0.06007326255555493, 0.064, 0.056073262555554934, 0.056, 0.06, 0.056, 0.056073262555554934, 0.06407326255555493, 0.056073262555554934, 0.06007326255555493, 0.056073262555554934, 0.04915594482144783, 0.05207326255555493, 0.04915594482144783, 0.056073262555554934, 0.06007326255555493, 0.04407326255555493, 0.048073262555554934, 0.0627399292222216, 0.05207326255555493, 0.05174934893255957, 0.05207326255555493, 0.0547399292222216, 0.0627399292222216, 0.0627399292222216, 0.0547399292222216, 0.056073262555554934, 0.058739929222221605, 0.058739929222221605, 0.050666666666666665, 0.048073262555554934, 0.0627399292222216, 0.0627399292222216, 0.0627399292222216, 0.058739929222221605, 0.0467399292222216, 0.0547399292222216, 0.058739929222221605, 0.0467399292222216, 0.05466666666666666, 0.0547399292222216, 0.0467399292222216, 0.050666666666666665, 0.0547399292222216, 0.0547399292222216, 0.058739929222221605, 0.0547399292222216, 0.0627399292222216, 0.0547399292222216, 0.0627399292222216, 0.050739929222221605, 0.0547399292222216, 0.0627399292222216, 0.04666666666666666, 0.050739929222221605, 0.0547399292222216, 0.0547399292222216, 0.05207326255555493, 0.0547399292222216, 0.0547399292222216, 0.0547399292222216, 0.0547399292222216, 0.0547399292222216, 0.050739929222221605, 0.0547399292222216, 0.050739929222221605, 0.0547399292222216, 0.0547399292222216, 0.0547399292222216, 0.0627399292222216, 0.0547399292222216, 0.042739929222221605, 0.06, 0.0547399292222216, 0.05207326255555493, 0.0547399292222216, 0.0467399292222216, 0.04666666666666666, 0.0547399292222216, 0.0547399292222216, 0.0627399292222216, 0.0627399292222216, 0.050666666666666665, 0.0667399292222216, 0.0627399292222216, 0.0547399292222216, 0.0547399292222216, 0.0547399292222216, 0.0627399292222216, 0.0547399292222216, 0.04666666666666666, 0.0547399292222216, 0.0627399292222216, 0.0627399292222216, 0.048073262555554934, 0.0547399292222216, 0.0547399292222216, 0.0547399292222216, 0.0467399292222216, 0.0627399292222216, 0.050739929222221605, 0.058739929222221605, 0.06266666666666666, 0.0667399292222216, 0.042666666666666665, 0.0627399292222216, 0.0627399292222216, 0.0467399292222216, 0.0547399292222216, 0.0547399292222216, 0.048073262555554934, 0.0547399292222216, 0.0467399292222216, 0.0547399292222216, 0.042739929222221605, 0.058739929222221605, 0.0547399292222216, 0.0547399292222216, 0.0547399292222216, 0.0547399292222216, 0.040073262555554934, 0.05740659588888826, 0.05466666666666666, 0.058739929222221605, 0.0627399292222216, 0.0627399292222216, 0.05466666666666666, 0.058739929222221605, 0.04666666666666666, 0.05207326255555493, 0.058739929222221605, 0.0467399292222216, 0.0627399292222216, 0.0467399292222216, 0.050739929222221605, 0.050739929222221605, 0.0627399292222216, 0.050739929222221605, 0.0547399292222216, 0.0627399292222216, 0.058739929222221605, 0.0547399292222216, 0.056073262555554934, 0.0627399292222216, 0.0547399292222216, 0.0627399292222216, 0.0627399292222216, 0.058739929222221605, 0.0547399292222216, 0.0547399292222216, 0.0547399292222216, 0.0547399292222216, 0.0467399292222216, 0.0547399292222216, 0.056073262555554934, 0.0627399292222216, 0.040073262555554934, 0.0467399292222216, 0.0667399292222216, 0.0547399292222216, 0.0627399292222216, 0.053478153857062095, 0.058739929222221605, 0.0547399292222216, 0.0547399292222216, 0.0547399292222216, 0.0627399292222216, 0.05466666666666666, 0.042666666666666665, 0.0627399292222216, 0.06266666666666666, 0.0627399292222216, 0.050666666666666665, 0.058739929222221605, 0.0547399292222216, 0.058666666666666666, 0.050666666666666665]</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Abnormality</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>premedAbnormality21</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[4.5255127, 3.6618042]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[0.0, 6.25]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[4.99375]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[5.0039062, 5.2226562]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Abnormality</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>premedAbnormality211</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[4.525635, 3.6618042]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[0.0, 6.25]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[4.99375]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[5.0039062, 5.2226562]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Abnormality</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4premedAbnormality211</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[4.5251465, 3.66156]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[0.0, 6.25]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[4.99375]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[5.0039062, 5.2226562]</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Abnormality</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>04premedAbnormality211</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[4.5253906, 3.6618652]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[0.0, 6.25]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[4.99375]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[5.0039062, 5.2226562]</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Abnormality</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>04premedAbnormality211</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[4.5255737, 3.66156, 3.536377, 3.4787598, 3.4251099]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[0.0, 6.25, 6.25, 6.25, 3.125]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[4.99375]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[5.0039062, 5.2226562, 5.3867188, 5.6875, 5.9257812]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Abnormality</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>04premedAbnormality211</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[3.5702515, 2.96344, 2.6808472, 2.6507874, 2.5371704]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[15.625, 6.25, 21.875, 21.875, 31.25]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[3.230664]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[1.0068359, 2.4726562, 2.7832031, 2.0839844, 1.7548828]</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>[100.0, 0.0, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>[1.0, 0.0, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Modality</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>04premedAbnormality211</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[4.5253906, 3.6618652, 3.53656, 3.4786987, 3.425232]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[0.0, 6.25, 6.25, 6.25, 3.125]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[4.99375]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[5.0039062, 5.2226562, 5.3867188, 5.6914062, 5.9296875]</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Abnormality</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>04premedAbnormality211</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>[3.5702515, 2.96344]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[15.625, 6.25]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[3.230664]</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[1.0068359, 2.4726562]</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>[100.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>[1.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Modality</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>04premedAbnormality211</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[3.57016, 2.9631958, 2.6808777, 2.65036, 2.53714, 2.4022522, 2.2356415, 2.0626068, 1.8644562, 1.520895]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[15.625, 6.25, 21.875, 21.875, 31.25, 34.375, 28.125, 25.0, 25.0, 53.125]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[3.230664, 3.6746094]</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[1.0068359, 2.4726562, 2.7851562, 2.0839844, 1.7548828, 1.5126953, 1.7382812, 0.8388672, 0.47143555, 2.0859375]</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>[100.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 100.0, 100.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Modality</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>04premedAbnormality211</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>[4.5252686, 3.6618652, 3.536499, 3.4785767, 3.425232, 3.381897, 3.2857666, 3.14917, 2.9195251, 2.681427]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[0.0, 6.25, 6.25, 6.25, 3.125, 3.125, 6.25, 12.5, 15.625, 15.625]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[4.99375, 6.391406]</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[5.0039062, 5.2226562, 5.3867188, 5.6914062, 5.9296875, 6.0859375, 6.2382812, 6.421875, 6.5039062, 4.4609375]</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Abnormality</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>04premedAbnormality211</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>20</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>[4.5255737, 3.661621, 3.536621, 3.4787598, 3.4251099, 3.381836, 3.2858276, 3.1495361, 2.9200134, 2.6820374, 2.445816, 2.1483917, 2.1364136, 1.78726, 1.6666107, 1.5669041, 1.2755513, 1.1017475, 0.7215409, 0.43980312]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[0.0, 6.25, 6.25, 6.25, 3.125, 3.125, 6.25, 12.5, 15.625, 15.625, 15.625, 25.0, 21.875, 37.5, 31.25, 34.375, 59.375, 65.625, 87.5, 93.75]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[4.99375, 6.389844, 5.6375, 5.6203127]</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>[5.0039062, 5.2226562, 5.3867188, 5.6875, 5.9257812, 6.0859375, 6.2382812, 6.421875, 6.5039062, 4.46875, 4.796875, 5.6210938, 6.8984375, 6.3007812, 6.28125, 4.84375, 4.3007812, 6.796875, 5.90625, 4.9140625]</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12500000000000003, 0.12500000000000003]</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Abnormality</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>04premedAbnormality211</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>20</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>[4.5255737, 3.661621, 3.536316, 3.4784546, 3.4249878, 3.381836, 3.2854614, 3.1489868, 2.9187622, 2.6803284, 2.4429474, 2.142662, 2.1243057, 1.7858353, 1.6502628, 1.5525994, 1.2386923, 1.0529156, 0.6814747, 0.41820526]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[0.0, 6.25, 6.25, 6.25, 3.125, 3.125, 6.25, 12.5, 15.625, 15.625, 18.75, 25.0, 25.0, 37.5, 34.375, 34.375, 65.625, 68.75, 87.5, 93.75]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[4.99375, 6.391406, 5.640625, 5.55625]</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[5.0039062, 5.2226562, 5.3867188, 5.6875, 5.9257812, 6.0859375, 6.2382812, 6.421875, 6.5039062, 4.4257812, 4.796875, 5.6796875, 6.9023438, 6.3203125, 6.3203125, 4.9335938, 4.1835938, 6.9804688, 5.8945312, 4.6523438]</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12500000000000003, 0.12500000000000003]</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Abnormality</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>04premedAbnormality211</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>20</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>[4.5253906, 3.6616821, 3.53656, 3.4786987, 3.425171, 3.381897, 3.2857666, 3.149292, 2.919983, 2.6821594, 2.4457092, 2.1497345, 2.1304321, 1.7843475, 1.6601963, 1.565321, 1.250298, 1.0872226, 0.7203555, 0.4450469]</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[0.0, 6.25, 6.25, 6.25, 3.125, 3.125, 6.25, 12.5, 15.625, 15.625, 15.625, 25.0, 21.875, 37.5, 34.375, 34.375, 62.5, 68.75, 87.5, 93.75]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[4.99375, 6.390625, 5.639844, 5.6117187]</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[5.0039062, 5.2226562, 5.3867188, 5.6875, 5.9257812, 6.0859375, 6.2382812, 6.421875, 6.5039062, 4.4648438, 4.796875, 5.6757812, 6.9648438, 6.3046875, 6.3085938, 4.8203125, 4.390625, 6.6796875, 5.8203125, 4.9023438]</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12500000000000003, 0.12500000000000003]</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Abnormality</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>04premedAbnormality211</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>20</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>[4.5246086, 3.6618657, 3.5369444, 3.4791348, 3.4257367, 3.382436, 3.2868147, 3.1507766, 2.9223025, 2.6847832, 2.447395, 2.1524458, 2.1493483, 1.7874525, 1.6632024, 1.5587692, 1.245596, 1.0923344, 0.7628188, 0.44586062]</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[0.0, 6.25, 6.25, 6.25, 3.125, 3.125, 6.25, 12.5, 15.625, 15.625, 18.75, 25.0, 21.875, 37.5, 34.375, 34.375, 65.625, 62.5, 84.375, 93.75]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[4.9917693, 6.3850756, 5.62783, 5.591054]</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[5.0018435, 5.219496, 5.382367, 5.6837516, 5.9222116, 6.078846, 6.2305536, 6.4117866, 6.499065, 4.493872, 4.788545, 5.546541, 6.97487, 6.3496375, 6.3104196, 4.8771563, 4.3060155, 6.297087, 5.9587116, 4.8522854]</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12500000000000003, 0.12500000000000003]</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Abnormality</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>04tttttttttttttt</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>20</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>[4.5246286, 3.6618254, 3.5370274, 3.4792266, 3.4257421, 3.3824372, 3.2869163, 3.151071, 2.9223723, 2.6852446, 2.4488459, 2.1555662, 2.1476176, 1.7880977, 1.6648322, 1.5626104, 1.2574475, 1.0830547, 0.7410754, 0.43982506]</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[0.0, 6.25, 6.25, 6.25, 3.125, 3.125, 6.25, 12.5, 15.625, 15.625, 18.75, 25.0, 21.875, 37.5, 34.375, 34.375, 62.5, 65.625, 84.375, 93.75]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[4.991797, 6.38461, 5.6279864, 5.6219516]</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[5.002777, 5.219275, 5.3832016, 5.6845646, 5.9222217, 6.0788455, 6.230448, 6.4135413, 6.4984307, 4.505111, 4.7749457, 5.5737576, 6.9642344, 6.3466163, 6.3060994, 4.970678, 4.286078, 6.468964, 6.088744, 4.803984]</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12500000000000003, 0.12500000000000003]</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Abnormality</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M2"/>
-  </ignoredErrors>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/vqamed2019/output_train.xlsx
+++ b/vqamed2019/output_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1593,6 +1593,250 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>premedabnormalityresume30</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>[7.8339953, 7.0535007]</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[1.5664160401002505, 2.506265664160401]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[7.642114]</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>[7.5510235, 7.6393404]</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>[4.8, 5.6000000000000005]</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>[0.048, 0.056]</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Abnormality</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>premedabnormalityresume30</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>[6.878936, 6.8044252, 6.9182305, 6.8916087, 6.8885818, 6.8494015, 6.8468575, 6.851254, 6.856003, 6.8547173]</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[1.9423558897243107, 2.2869674185463658, 2.756892230576441, 2.819548872180451, 2.3496240601503757, 2.568922305764411, 2.850877192982456, 2.850877192982456, 2.318295739348371, 2.4122807017543857]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[7.8227344, 7.7844768]</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[7.6984777, 7.526824, 7.522415, 7.668165, 7.690838, 7.792083, 7.8482304, 7.769601, 7.7879324, 7.8153524]</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>[4.8, 4.8, 4.8, 4.8, 6.4, 6.4, 5.6000000000000005, 6.4, 6.4, 5.6000000000000005]</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>[0.06301097078180085, 0.05042612263885053, 0.048, 0.0490826822658929, 0.064, 0.064, 0.0570826822658929, 0.064, 0.064, 0.0570826822658929]</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Abnormality</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>premedabnormalityresume30</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>[6.7445936, 6.741494, 6.8084993, 6.785796, 6.7832093, 6.840034, 6.8197427, 6.81844, 6.8192387, 6.8213553]</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[2.036340852130326, 2.662907268170426, 2.882205513784461, 2.506265664160401, 2.2556390977443606, 2.537593984962406, 2.944862155388471, 2.976190476190476, 2.318295739348371, 2.568922305764411]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[7.873254, 7.7529254]</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>[7.786483, 7.6967907, 7.661279, 7.799238, 7.809295, 7.7421565, 7.7926254, 7.7106237, 7.7519207, 7.7779136]</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>[4.8, 4.8, 4.0, 4.8, 6.4, 6.4, 5.6000000000000005, 6.4, 6.4, 5.6000000000000005]</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>[0.06301097078180085, 0.048, 0.04, 0.0490826822658929, 0.064, 0.064, 0.0570826822658929, 0.064, 0.064, 0.0570826822658929]</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Abnormality</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>premedabnormalityresume30</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>[6.7210007, 6.732892, 6.755894, 6.7381067, 6.7347383]</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[2.1929824561403506, 2.631578947368421, 2.944862155388471, 2.506265664160401, 2.318295739348371]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[7.857311]</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>[7.7630897, 7.7299685, 7.7860184, 7.891385, 7.8992443]</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>[4.8, 5.6000000000000005, 4.0, 4.8, 6.4]</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>[0.06301097078180085, 0.056, 0.04, 0.0490826822658929, 0.064]</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Abnormality</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
